--- a/Bike Sales Dashboard.xlsx
+++ b/Bike Sales Dashboard.xlsx
@@ -19,10 +19,9 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -670,7 +669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -713,8 +712,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,11 +735,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -779,593 +780,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -1467,84 +887,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1558,56 +900,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -1671,7 +963,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1698,7 +989,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1903,11 +1193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169709568"/>
-        <c:axId val="169711104"/>
+        <c:axId val="2588032"/>
+        <c:axId val="32685056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169709568"/>
+        <c:axId val="2588032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169711104"/>
+        <c:crossAx val="32685056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169711104"/>
+        <c:axId val="32685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,14 +1225,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169709568"/>
+        <c:crossAx val="2588032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2149,11 +1438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196881024"/>
-        <c:axId val="196886912"/>
+        <c:axId val="33671424"/>
+        <c:axId val="33701888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196881024"/>
+        <c:axId val="33671424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +1451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196886912"/>
+        <c:crossAx val="33701888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +1459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196886912"/>
+        <c:axId val="33701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,14 +1470,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196881024"/>
+        <c:crossAx val="33671424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2359,11 +1647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196924544"/>
-        <c:axId val="196926080"/>
+        <c:axId val="145558528"/>
+        <c:axId val="145564416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196924544"/>
+        <c:axId val="145558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +1660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196926080"/>
+        <c:crossAx val="145564416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +1668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196926080"/>
+        <c:axId val="145564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,14 +1679,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196924544"/>
+        <c:crossAx val="145558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2456,10 +1743,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2603,11 +1886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57333248"/>
-        <c:axId val="57334784"/>
+        <c:axId val="147464960"/>
+        <c:axId val="147466496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57333248"/>
+        <c:axId val="147464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +1899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57334784"/>
+        <c:crossAx val="147466496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +1907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57334784"/>
+        <c:axId val="147466496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,14 +1918,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57333248"/>
+        <c:crossAx val="147464960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2955,11 +2237,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196830720"/>
-        <c:axId val="196832256"/>
+        <c:axId val="147954688"/>
+        <c:axId val="166322176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196830720"/>
+        <c:axId val="147954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196832256"/>
+        <c:crossAx val="166322176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196832256"/>
+        <c:axId val="166322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196830720"/>
+        <c:crossAx val="147954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3231,11 +2513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196290048"/>
-        <c:axId val="196291584"/>
+        <c:axId val="168213504"/>
+        <c:axId val="168215296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196290048"/>
+        <c:axId val="168213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +2526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196291584"/>
+        <c:crossAx val="168215296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3252,7 +2534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196291584"/>
+        <c:axId val="168215296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +2545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196290048"/>
+        <c:crossAx val="168213504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3453,11 +2735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196327296"/>
-        <c:axId val="196328832"/>
+        <c:axId val="169732352"/>
+        <c:axId val="172487424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196327296"/>
+        <c:axId val="169732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +2748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196328832"/>
+        <c:crossAx val="172487424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3474,7 +2756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196328832"/>
+        <c:axId val="172487424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,7 +2767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196327296"/>
+        <c:crossAx val="169732352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3721,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212925056"/>
-        <c:axId val="214287872"/>
+        <c:axId val="196315392"/>
+        <c:axId val="196333568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212925056"/>
+        <c:axId val="196315392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214287872"/>
+        <c:crossAx val="196333568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3742,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214287872"/>
+        <c:axId val="196333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212925056"/>
+        <c:crossAx val="196315392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3881,16 +3163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4292,8 +3574,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Education"/>
@@ -4310,7 +3592,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -37156,7 +36438,481 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Occupation">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Age Bracket">
+  <location ref="A41:D46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="13" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Customer Commute">
+  <location ref="A24:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Occupation">
+  <location ref="A77:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Occupation">
   <location ref="A57:D64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -37244,10 +37000,10 @@
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="112">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -37310,8 +37066,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Genderwise">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Genderwise">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -37392,13 +37148,13 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="120">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -37410,7 +37166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -37423,7 +37179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="10">
       <pivotArea field="13" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="13" count="2" selected="0">
@@ -37433,14 +37189,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="9">
       <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -37551,331 +37307,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Age Bracket">
-  <location ref="A41:D46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="13" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="122">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="121">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Customer Commute">
-  <location ref="A24:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="124">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Marrital_Status" sourceName="Marrital Status">
   <pivotTables>
@@ -37899,6 +37330,7 @@
     <pivotTable tabId="2" name="PivotTable3"/>
     <pivotTable tabId="2" name="PivotTable2"/>
     <pivotTable tabId="2" name="PivotTable4"/>
+    <pivotTable tabId="2" name="PivotTable5"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
@@ -38229,7 +37661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -38237,17 +37669,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D64"/>
+  <dimension ref="A3:E82"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38505,7 +37937,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>40</v>
       </c>
@@ -38515,7 +37947,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
@@ -38529,7 +37961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -38542,8 +37974,12 @@
       <c r="D59" s="6">
         <v>177</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="8">
+        <f>C59/D59</f>
+        <v>0.49717514124293788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -38556,8 +37992,12 @@
       <c r="D60" s="6">
         <v>173</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="8">
+        <f t="shared" ref="E60:E63" si="0">C60/D60</f>
+        <v>0.42196531791907516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -38570,8 +38010,12 @@
       <c r="D61" s="6">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46218487394957986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
@@ -38584,8 +38028,12 @@
       <c r="D62" s="6">
         <v>276</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -38598,8 +38046,12 @@
       <c r="D63" s="6">
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45098039215686275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
@@ -38612,10 +38064,94 @@
       <c r="D64" s="6">
         <v>1000</v>
       </c>
+      <c r="E64" s="8">
+        <f>C64/D64</f>
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="6">
+        <v>152</v>
+      </c>
+      <c r="C79" s="6">
+        <v>148</v>
+      </c>
+      <c r="D79" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="6">
+        <v>288</v>
+      </c>
+      <c r="C80" s="6">
+        <v>220</v>
+      </c>
+      <c r="D80" s="6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6">
+        <v>79</v>
+      </c>
+      <c r="C81" s="6">
+        <v>113</v>
+      </c>
+      <c r="D81" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="6">
+        <v>519</v>
+      </c>
+      <c r="C82" s="6">
+        <v>481</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -38624,60 +38160,60 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
